--- a/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UISetting" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -130,9 +130,6 @@
     <t>ui_roleinfo/ui_role_info</t>
   </si>
   <si>
-    <t>1|3</t>
-  </si>
-  <si>
     <t>ui_areas/ui_areas</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>ui_quest/ui_quest</t>
   </si>
   <si>
+    <t>ui_quest/ui_popup_patrol</t>
+  </si>
+  <si>
     <t>ui_unit/ui_unit_info</t>
   </si>
   <si>
@@ -160,18 +160,6 @@
     <t>ui_unit/ui_unit_skill</t>
   </si>
   <si>
-    <t>ui_stage/ui_stage_equipment</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_equipment_select</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_trainning</t>
-  </si>
-  <si>
-    <t>ui_stage/ui_stage_trainning_select</t>
-  </si>
-  <si>
     <t>ui_vscourt/ui_solo_court_logic</t>
   </si>
   <si>
@@ -193,10 +181,22 @@
     <t>ui_equip/ui_equip_level_up</t>
   </si>
   <si>
-    <t>ui_energy</t>
-  </si>
-  <si>
-    <t>ui_team_talent</t>
+    <t>ui_state/ui_energy</t>
+  </si>
+  <si>
+    <t>ui_team/ui_team_talent</t>
+  </si>
+  <si>
+    <t>ui_stage/ui_mazestage</t>
+  </si>
+  <si>
+    <t>ui_player/ui_player_info_lite</t>
+  </si>
+  <si>
+    <t>ui_notice/ui_notice</t>
+  </si>
+  <si>
+    <t>ui_mail/ui_mail</t>
   </si>
   <si>
     <t>场景名称</t>
@@ -265,49 +265,52 @@
     <t>Role1</t>
   </si>
   <si>
-    <t>{#凯瑟琳2待机2动作};0;{#凯瑟琳2待机2动作};这里是对话;1|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};15;{凯瑟琳2得意动作恢复};这里是对话;3|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};15;{凯瑟琳2紧张动作恢复};这里是对话;3|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};15;{凯瑟琳2开心动作恢复};这里是对话;3</t>
-  </si>
-  <si>
-    <t>{#凯瑟琳2喝药动作};5;{#凯瑟琳2喝药动作恢复};这里是对话;1|{#凯瑟琳2享受动作};5;{#凯瑟琳2享受动作恢复};这里是对话;1|{#凯瑟琳2惊讶动作};5;{#凯瑟琳2惊讶动作恢复};这里是对话;1</t>
-  </si>
-  <si>
-    <t>{#凯瑟琳2威慑动作};5;{#凯瑟琳2威慑动作恢复}这里是对话2;1</t>
+    <t>{#凯瑟琳2待机2动作};4;{#凯瑟琳2待机2动作};唔……;3|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};5;{#凯瑟琳2得意动作恢复}{#凯瑟琳2待机表情};分裂和增生的速度很快，难缠……;5|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};6;{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情};找个什么借口再检查一下你呢？;5|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};3;{#凯瑟琳2开心动作恢复}{#凯瑟琳待机表情};我对你可太感兴趣了;3</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2喝药动作}{#凯瑟琳2喝药表情};5;{#凯瑟琳2喝药动作恢复}{#凯瑟琳2待机表情};要我帮你做什么吗？;4|{#凯瑟琳2享受动作}{#凯瑟琳2享受表情};2;{#凯瑟琳2享受动作恢复}{#凯瑟琳2待机表情};每次被你触摸，我的每一根神经都兴奋不已~;1|{#凯瑟琳2惊讶动作}{#凯瑟琳2惊讶表情};2;{#凯瑟琳2惊讶动作恢复}{#凯瑟琳2待机表情};明明没有受伤，你找我有什么事？;3</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2威慑动作};5;{#凯瑟琳2威慑动作恢复};快让我检查一下，放心，不会出问题的~;5</t>
   </si>
   <si>
     <t>MhScenario12</t>
   </si>
   <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};25|{#聂飞待机表情};{#聂飞得意动作}{#聂飞得意表情};6|{#聂飞得意动作恢复}{#聂飞待机表情};3|{#聂飞思考动作}{#聂飞思考表情};35|{#聂飞思考动作恢复}{#聂飞待机表情};5|{#聂飞待机动作};10</t>
-  </si>
-  <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};25;{#聂飞俯卧撑动作恢复};这里是对话11;10</t>
-  </si>
-  <si>
-    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复};这里是军体拳对话;4</t>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};7;{#聂飞俯卧撑动作恢复}{#聂飞待机表情};呼，呼;3;|{#聂飞得意动作}{#聂飞得意表情};5;{#聂飞得意动作恢复}{#聂飞待机表情};哼哼，我的过去，值得细细品味。;6|{#聂飞思考动作}{#聂飞思考表情};5;{#聂飞思考动作恢复}{#聂飞待机表情};恩……;5|{#聂飞紧张动作}{#聂飞紧张表情};5;{#聂飞紧张动作恢复}{#聂飞待机表情};什么？新的工作安排，马上过去！;5</t>
+  </si>
+  <si>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};5;{#聂飞俯卧撑动作恢复};即使是猫，每天也要坚持锻炼！;10|{#聂飞开心动作}{#聂飞开心表情};4;{#聂飞开心动作恢复}{#聂飞待机表情};猫条与猫薄荷最适合我了！;4|{#聂飞忧伤动作}{#聂飞忧伤表情};5;{#聂飞忧伤动作恢复}{#聂飞待机表情};凯瑟琳说要扣猫条，少年，帮我求求情。;5</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复};小子，一起来锻炼吧！;5</t>
   </si>
   <si>
     <t>MhScenario13</t>
   </si>
   <si>
-    <t>{#涂凌思考动作}{#涂凌思考表情};20;{#涂凌思考动作恢复}{#涂凌待机表情};;|{#涂凌灵感动作}{#涂凌平静表情};10;{#涂凌灵感动作恢复}{#涂凌开心表情};灵感对话！;2|{#涂凌开心动作}{#涂凌开心表情};20;{#涂凌开心动作恢复}{#涂凌待机表情};回复待机！;6</t>
-  </si>
-  <si>
-    <t>{#涂凌点赞动作};5;{#涂凌点赞动作恢复};这里是对话;1|{#涂凌鄙视动作};5;{#涂凌鄙视动作恢复};这里是对话;1</t>
-  </si>
-  <si>
-    <t>{#涂凌扔东西动作};3;{#涂凌扔东西2动作恢复};丢东西对话;2</t>
+    <t>{#涂凌思考动作}{#涂凌思考表情};5;{#涂凌思考动作恢复}{#涂凌待机表情};限定游戏发售，要不要打个通宵呢？;4|{#涂凌灵感动作}{#涂凌平静表情};4;{#涂凌灵感动作恢复}{#涂凌开心表情};有了！通关的方法不止这一种！;4|{#涂凌开心动作}{#涂凌开心表情};5;{#涂凌开心动作恢复}{#涂凌待机表情};呼呼，工作都完成了~;4</t>
+  </si>
+  <si>
+    <t>{#涂凌点赞动作}{#涂凌开心表情};5;{#涂凌点赞动作恢复}{#涂凌待机表情};勇敢的少年，一起来创造奇迹！;5|{#涂凌休闲动作}{#涂凌打字表情};8;{#涂凌休闲动作恢复}{#涂凌待机表情};啊哇哇，吓死我了！;5|{#涂凌惊讶动作}{#涂凌惊讶表情};5;{#涂凌惊讶动作恢复}{#涂凌待机表情};呀！！！不要突然碰我啊！;5</t>
+  </si>
+  <si>
+    <t>{#涂凌严肃动作};3;{#涂凌严肃动作恢复};你好啊，又见面了~;3</t>
+  </si>
+  <si>
+    <t>MhScenario5</t>
+  </si>
+  <si>
+    <t>{#土山奥待机动作};5;{#土山奥待机动作};还有工作……;4|{#土山奥无奈动作}{#土山奥无奈表情};4;{#土山奥无奈动作恢复}{#土山奥待机表情};要多思考。;3|{#土山奥思考动作}{#土山奥思考表情};5;{#土山奥思考动作恢复}{#土山奥待机表情};;</t>
+  </si>
+  <si>
+    <t>{#土山奥威胁动作}{#土山奥思考表情};5;{#土山奥威胁动作恢复}{#土山奥待机表情};警惕。;4|{#土山奥打住动作}{#土山奥思考表情};4;{#土山奥打住动作恢复}{#土山奥待机表情};没有必要。;3|{#土山奥无奈动作}{#土山奥无奈表情};5;{#土山奥无奈动作恢复}{#土山奥待机表情};不必关心我;4</t>
+  </si>
+  <si>
+    <t>{#土山奥待机2动作};4;{#土山奥待机动作};新工作？一起吧;4</t>
   </si>
   <si>
     <t>MhScenario4</t>
-  </si>
-  <si>
-    <t>Role1|Role2|Role3</t>
-  </si>
-  <si>
-    <t>14|11|13</t>
-  </si>
-  <si>
-    <t>MhScenario5</t>
   </si>
   <si>
     <t>Role1|Role2</t>
@@ -1531,10 +1534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1626,10 +1629,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1637,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>15</v>
@@ -1668,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>15</v>
@@ -1682,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>15</v>
@@ -1691,18 +1694,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>15</v>
@@ -1724,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7">
-        <v>500000</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1738,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>500000</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1752,27 +1752,28 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>15</v>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1780,13 +1781,11 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1794,28 +1793,27 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1825,9 +1823,11 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1837,11 +1837,11 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1877,13 +1877,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1891,13 +1891,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1905,13 +1905,27 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1927,8 +1941,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I8 I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2040,7 +2054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:10">
+    <row r="4" ht="94.5" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2060,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>62</v>
@@ -2072,7 +2086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:10">
+    <row r="5" ht="94.5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2089,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>66</v>
@@ -2101,7 +2115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:10">
+    <row r="6" ht="81" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>70</v>
@@ -2130,30 +2144,36 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
+    <row r="7" ht="67.5" spans="1:10">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
+      <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2163,16 +2183,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2249,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2263,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2408,57 +2428,57 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2502,25 +2522,25 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2567,57 +2587,57 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -2652,25 +2672,25 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2715,99 +2735,99 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
@@ -2866,46 +2886,46 @@
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" s="1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,9 @@
     <t>ui_mail/ui_mail</t>
   </si>
   <si>
+    <t>ui_tips/ui_itemDes_tips</t>
+  </si>
+  <si>
     <t>场景名称</t>
   </si>
   <si>
@@ -265,10 +268,10 @@
     <t>Role1</t>
   </si>
   <si>
-    <t>{#凯瑟琳2待机2动作};4;{#凯瑟琳2待机2动作};唔……;3|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};5;{#凯瑟琳2得意动作恢复}{#凯瑟琳2待机表情};分裂和增生的速度很快，难缠……;5|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};6;{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情};找个什么借口再检查一下你呢？;5|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};3;{#凯瑟琳2开心动作恢复}{#凯瑟琳待机表情};我对你可太感兴趣了;3</t>
-  </si>
-  <si>
-    <t>{#凯瑟琳2喝药动作}{#凯瑟琳2喝药表情};5;{#凯瑟琳2喝药动作恢复}{#凯瑟琳2待机表情};要我帮你做什么吗？;4|{#凯瑟琳2享受动作}{#凯瑟琳2享受表情};2;{#凯瑟琳2享受动作恢复}{#凯瑟琳2待机表情};每次被你触摸，我的每一根神经都兴奋不已~;1|{#凯瑟琳2惊讶动作}{#凯瑟琳2惊讶表情};2;{#凯瑟琳2惊讶动作恢复}{#凯瑟琳2待机表情};明明没有受伤，你找我有什么事？;3</t>
+    <t>{#凯瑟琳2待机2动作};4;{#凯瑟琳2待机2动作};唔……;3|{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};2;{#凯瑟琳2得意动作恢复}{#凯瑟琳2待机表情};分裂和增生的速度很快，难缠……;2|{#凯瑟琳2紧张动作}{#凯瑟琳2思考表情};6;{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情};找个什么借口再检查一下你呢？;5|{#凯瑟琳2开心动作}{#凯瑟琳2思考表情};3;{#凯瑟琳2开心动作恢复}{#凯瑟琳待机表情};我对你可太感兴趣了;3</t>
+  </si>
+  <si>
+    <t>{#凯瑟琳2喝药动作}{#凯瑟琳2喝药表情};5;{#凯瑟琳2喝药动作恢复}{#凯瑟琳2待机表情};要我帮你做什么吗？;4|{#凯瑟琳2享受动作}{#凯瑟琳2享受表情};3;{#凯瑟琳2享受动作恢复}{#凯瑟琳2待机表情};每次被你触摸，我的每一根神经都兴奋不已~;2|{#凯瑟琳2惊讶动作}{#凯瑟琳2惊讶表情};2;{#凯瑟琳2惊讶动作恢复}{#凯瑟琳2待机表情};明明没有受伤，你找我有什么事？;3</t>
   </si>
   <si>
     <t>{#凯瑟琳2威慑动作};5;{#凯瑟琳2威慑动作恢复};快让我检查一下，放心，不会出问题的~;5</t>
@@ -277,22 +280,22 @@
     <t>MhScenario12</t>
   </si>
   <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};7;{#聂飞俯卧撑动作恢复}{#聂飞待机表情};呼，呼;3;|{#聂飞得意动作}{#聂飞得意表情};5;{#聂飞得意动作恢复}{#聂飞待机表情};哼哼，我的过去，值得细细品味。;6|{#聂飞思考动作}{#聂飞思考表情};5;{#聂飞思考动作恢复}{#聂飞待机表情};恩……;5|{#聂飞紧张动作}{#聂飞紧张表情};5;{#聂飞紧张动作恢复}{#聂飞待机表情};什么？新的工作安排，马上过去！;5</t>
-  </si>
-  <si>
-    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};5;{#聂飞俯卧撑动作恢复};即使是猫，每天也要坚持锻炼！;10|{#聂飞开心动作}{#聂飞开心表情};4;{#聂飞开心动作恢复}{#聂飞待机表情};猫条与猫薄荷最适合我了！;4|{#聂飞忧伤动作}{#聂飞忧伤表情};5;{#聂飞忧伤动作恢复}{#聂飞待机表情};凯瑟琳说要扣猫条，少年，帮我求求情。;5</t>
-  </si>
-  <si>
-    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复};小子，一起来锻炼吧！;5</t>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};7;{#聂飞俯卧撑动作恢复}{#聂飞待机表情};呼，呼;3;|{#聂飞得意动作}{#聂飞得意表情};5;{#聂飞得意动作恢复}{#聂飞待机表情};哼哼，我的过去？那可有的说了~;6|{#聂飞思考动作}{#聂飞思考表情};5;{#聂飞思考动作恢复}{#聂飞待机表情};恩……;5|{#聂飞紧张动作}{#聂飞紧张表情};5;{#聂飞紧张动作恢复}{#聂飞待机表情};什么？新的工作安排？我马上处理;5</t>
+  </si>
+  <si>
+    <t>{#聂飞俯卧撑动作}{#聂飞严肃表情};5;{#聂飞俯卧撑动作恢复};来吧！和我一起坚持锻炼！;5|{#聂飞开心动作}{#聂飞开心表情};4;{#聂飞开心动作恢复}{#聂飞待机表情};报酬是猫条？太棒了！;4|{#聂飞忧伤动作}{#聂飞忧伤表情};4;{#聂飞忧伤动作恢复}{#聂飞待机表情};凯瑟琳说要扣猫条，少年，帮我求求情。;4</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳动作}{#聂飞军体拳表情};5;{#聂飞军体拳动作恢复}{#聂飞待机表情};小子，一起来锻炼吧！;5</t>
   </si>
   <si>
     <t>MhScenario13</t>
   </si>
   <si>
-    <t>{#涂凌思考动作}{#涂凌思考表情};5;{#涂凌思考动作恢复}{#涂凌待机表情};限定游戏发售，要不要打个通宵呢？;4|{#涂凌灵感动作}{#涂凌平静表情};4;{#涂凌灵感动作恢复}{#涂凌开心表情};有了！通关的方法不止这一种！;4|{#涂凌开心动作}{#涂凌开心表情};5;{#涂凌开心动作恢复}{#涂凌待机表情};呼呼，工作都完成了~;4</t>
-  </si>
-  <si>
-    <t>{#涂凌点赞动作}{#涂凌开心表情};5;{#涂凌点赞动作恢复}{#涂凌待机表情};勇敢的少年，一起来创造奇迹！;5|{#涂凌休闲动作}{#涂凌打字表情};8;{#涂凌休闲动作恢复}{#涂凌待机表情};啊哇哇，吓死我了！;5|{#涂凌惊讶动作}{#涂凌惊讶表情};5;{#涂凌惊讶动作恢复}{#涂凌待机表情};呀！！！不要突然碰我啊！;5</t>
+    <t>{#涂凌思考动作}{#涂凌思考表情};2;{#涂凌思考动作恢复}{#涂凌待机表情};游戏首发……要不要打个通宵呢？;2|{#涂凌灵感动作}{#涂凌平静表情};2;{#涂凌灵感动作恢复}{#涂凌开心表情};有了！通关的方法不止这一种！;4|{#涂凌开心动作}{#涂凌开心表情};2;{#涂凌开心动作恢复}{#涂凌待机表情};呼呼，工作都完成了~;2</t>
+  </si>
+  <si>
+    <t>{#涂凌点赞动作}{#涂凌开心表情};3;{#涂凌点赞动作恢复}{#涂凌待机表情};勇敢的少年，一起来创造奇迹！;2|{#涂凌休闲动作}{#涂凌打字表情};5;{#涂凌休闲动作恢复}{#涂凌待机表情};啊哇哇，我的游戏！;5|{#涂凌惊讶动作}{#涂凌惊讶表情};5;{#涂凌惊讶动作恢复}{#涂凌待机表情};呀！不要突然碰我啊！;5</t>
   </si>
   <si>
     <t>{#涂凌严肃动作};3;{#涂凌严肃动作恢复};你好啊，又见面了~;3</t>
@@ -301,10 +304,10 @@
     <t>MhScenario5</t>
   </si>
   <si>
-    <t>{#土山奥待机动作};5;{#土山奥待机动作};还有工作……;4|{#土山奥无奈动作}{#土山奥无奈表情};4;{#土山奥无奈动作恢复}{#土山奥待机表情};要多思考。;3|{#土山奥思考动作}{#土山奥思考表情};5;{#土山奥思考动作恢复}{#土山奥待机表情};;</t>
-  </si>
-  <si>
-    <t>{#土山奥威胁动作}{#土山奥思考表情};5;{#土山奥威胁动作恢复}{#土山奥待机表情};警惕。;4|{#土山奥打住动作}{#土山奥思考表情};4;{#土山奥打住动作恢复}{#土山奥待机表情};没有必要。;3|{#土山奥无奈动作}{#土山奥无奈表情};5;{#土山奥无奈动作恢复}{#土山奥待机表情};不必关心我;4</t>
+    <t>{#土山奥待机动作};2;{#土山奥待机动作};还有工作……;4|{#土山奥无奈动作}{#土山奥无奈表情};2;{#土山奥无奈动作恢复}{#土山奥待机表情};要多思考。;2|{#土山奥思考动作}{#土山奥思考表情};2;{#土山奥思考动作恢复}{#土山奥待机表情};……;2</t>
+  </si>
+  <si>
+    <t>{#土山奥威胁动作}{#土山奥思考表情};3;{#土山奥威胁动作恢复}{#土山奥待机表情};警惕。;4|{#土山奥打住动作}{#土山奥思考表情};4;{#土山奥打住动作恢复}{#土山奥待机表情};没有必要。;3|{#土山奥无奈动作}{#土山奥无奈表情};5;{#土山奥无奈动作恢复}{#土山奥待机表情};不必关心我;4</t>
   </si>
   <si>
     <t>{#土山奥待机2动作};4;{#土山奥待机动作};新工作？一起吧;4</t>
@@ -629,7 +632,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,7 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399426252021851"/>
+        <fgColor theme="3" tint="0.399395733512375"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,39 +1116,39 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,12 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1534,10 +1537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1614,7 +1617,7 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
@@ -1625,10 +1628,10 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="F5">
@@ -1642,10 +1645,10 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6">
@@ -1659,7 +1662,7 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="F7">
@@ -1673,7 +1676,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
@@ -1687,7 +1690,7 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="F9">
@@ -1701,7 +1704,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1712,7 +1715,7 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="F11">
@@ -1726,7 +1729,7 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="F12">
@@ -1754,7 +1757,7 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="F14">
@@ -1765,10 +1768,9 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16"/>
       <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1785,6 @@
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="16"/>
       <c r="F16">
         <v>4</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="F18">
@@ -1823,7 +1824,7 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="F19">
@@ -1837,7 +1838,7 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="F20">
@@ -1851,7 +1852,7 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="F21">
@@ -1865,7 +1866,7 @@
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="F22">
@@ -1879,7 +1880,7 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="F23">
@@ -1893,7 +1894,7 @@
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="F24">
@@ -1907,7 +1908,7 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="F25">
@@ -1921,11 +1922,22 @@
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="F26">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1941,8 +1953,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,31 +1975,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1995,31 +2007,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2033,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
@@ -2045,13 +2057,13 @@
         <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
@@ -2059,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>11</v>
@@ -2077,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="94.5" spans="1:10">
@@ -2091,13 +2103,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
@@ -2106,13 +2118,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:10">
@@ -2120,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>13</v>
@@ -2135,13 +2147,13 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:10">
@@ -2149,13 +2161,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>15</v>
@@ -2164,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="8:10">
@@ -2183,16 +2195,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2269,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2283,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2428,57 +2440,57 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2522,25 +2534,25 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2587,57 +2599,57 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -2672,25 +2684,25 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2735,99 +2747,99 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
@@ -2886,53 +2898,53 @@
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="str">
-        <f t="shared" ref="B19:Q19" si="2">_xlfn.CONCAT(B15:B18)</f>
+        <f t="shared" ref="B19:P19" si="2">_xlfn.CONCAT(B15:B18)</f>
         <v>{#涂凌思考动作}{#涂凌思考表情};20|</v>
       </c>
       <c r="C19" t="str">

--- a/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/UI界面.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\mobi_res\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37AD223-FEA9-4D85-9CEF-8945DC9C1750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UISetting" sheetId="1" r:id="rId1"/>
@@ -12,22 +18,36 @@
     <sheet name="rank" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.金币
@@ -42,18 +62,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>DELL:</t>
@@ -62,6 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -437,19 +459,17 @@
   </si>
   <si>
     <t>{#涂凌待机动作}{#涂凌平静表情}</t>
+  </si>
+  <si>
+    <t>ui_stage/ui_stage_ptrewards_detail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +482,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -469,170 +490,53 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,19 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399395733512375"/>
+        <fgColor theme="3" tint="0.39936521500289923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,194 +573,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -890,258 +608,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,13 +625,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1167,84 +643,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1531,26 +966,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +1046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1624,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1638,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1652,10 +1088,10 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1669,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1680,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1697,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1708,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1719,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1733,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1747,10 +1183,10 @@
         <v>500000</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1761,10 +1197,10 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1778,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1789,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1803,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1814,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1828,10 +1264,10 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1842,10 +1278,10 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1859,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1873,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1887,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1901,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1915,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1929,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1940,24 +1376,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="13.75" style="1" customWidth="1"/>
@@ -1970,7 +1417,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +1513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:10">
+    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2098,7 +1545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:10">
+    <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2127,7 +1574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" ht="81" spans="1:10">
+    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2156,7 +1603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" ht="67.5" spans="1:10">
+    <row r="7" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2185,12 +1632,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2213,55 +1660,55 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2269,14 +1716,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +1734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +1745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +1756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2320,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2331,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2342,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2353,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2364,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2375,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2386,7 +1833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2397,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2408,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2417,13 +1864,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:S19"/>
   <sheetViews>
@@ -2431,14 +1878,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="10" width="21.875" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="19" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2467,7 +1914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
@@ -2499,7 +1946,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>15</v>
       </c>
@@ -2532,7 +1979,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
@@ -2559,7 +2006,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" t="str">
         <f t="shared" ref="B7:I7" si="0">_xlfn.CONCAT(B3:B6)</f>
         <v>{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};15|</v>
@@ -2597,7 +2044,7 @@
         <v>{#凯瑟琳2得意动作}{#凯瑟琳2思考表情};15|{#凯瑟琳2得意动作恢复}{#凯瑟琳2待机表情};3|{#凯瑟琳2紧张动作}{#凯瑟琳2待机表情};35|{#凯瑟琳2紧张动作恢复}{#凯瑟琳2待机表情};10|{#凯瑟琳2严肃动作};15|{#凯瑟琳2思考动作}{#凯瑟琳2思考表情};30|{#凯瑟琳2思考动作恢复}{#凯瑟琳2待机表情};5|{#凯瑟琳2待机动作};15</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2626,7 +2073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>93</v>
       </c>
@@ -2652,7 +2099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>25</v>
       </c>
@@ -2682,7 +2129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2707,7 +2154,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" t="str">
         <f t="shared" ref="B13:I13" si="1">_xlfn.CONCAT(B9:B12)</f>
         <v>{#聂飞俯卧撑动作}{#聂飞严肃表情};25|</v>
@@ -2745,7 +2192,7 @@
         <v>{#聂飞俯卧撑动作}{#聂飞严肃表情};25|{#聂飞待机表情};10|{#聂飞军体拳动作}{#聂飞军体拳表情};5|{#聂飞得意动作}{#聂飞得意表情};6|{#聂飞得意动作恢复}{#聂飞待机表情};3|{#聂飞思考动作}{#聂飞思考表情};35|{#聂飞思考动作恢复}{#聂飞待机表情};5|{#聂飞待机动作};10</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2795,7 +2242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
@@ -2844,7 +2291,7 @@
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>20</v>
       </c>
@@ -2896,7 +2343,7 @@
       </c>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>94</v>
       </c>
@@ -2942,7 +2389,7 @@
       <c r="P18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" t="str">
         <f t="shared" ref="B19:P19" si="2">_xlfn.CONCAT(B15:B18)</f>
         <v>{#涂凌思考动作}{#涂凌思考表情};20|</v>
@@ -3009,7 +2456,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>